--- a/Excel-XLSX/UN-COD.xlsx
+++ b/Excel-XLSX/UN-COD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1216">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Muq71S</t>
+    <t>3LmS1a</t>
   </si>
   <si>
     <t>1960</t>
@@ -3588,13 +3588,16 @@
     <t>582</t>
   </si>
   <si>
-    <t>52571</t>
-  </si>
-  <si>
-    <t>210138</t>
-  </si>
-  <si>
-    <t>5434</t>
+    <t>50716</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>206177</t>
+  </si>
+  <si>
+    <t>9321</t>
   </si>
   <si>
     <t>584</t>
@@ -3609,10 +3612,10 @@
     <t>587</t>
   </si>
   <si>
-    <t>7008290</t>
-  </si>
-  <si>
-    <t>520561</t>
+    <t>6905511</t>
+  </si>
+  <si>
+    <t>2361409</t>
   </si>
   <si>
     <t>588</t>
@@ -3636,25 +3639,25 @@
     <t>595</t>
   </si>
   <si>
-    <t>206568</t>
-  </si>
-  <si>
     <t>596</t>
   </si>
   <si>
+    <t>204227</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
     <t>597</t>
   </si>
   <si>
-    <t>50136</t>
-  </si>
-  <si>
-    <t>5298</t>
-  </si>
-  <si>
-    <t>1278</t>
-  </si>
-  <si>
     <t>598</t>
+  </si>
+  <si>
+    <t>55325</t>
+  </si>
+  <si>
+    <t>2348</t>
   </si>
   <si>
     <t>599</t>
@@ -43602,13 +43605,13 @@
         <v>31</v>
       </c>
       <c r="N582" s="2" t="s">
-        <v>824</v>
+        <v>878</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P582" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="Q582" s="2" t="s">
         <v>33</v>
@@ -43673,10 +43676,10 @@
         <v>1190</v>
       </c>
       <c r="O583" s="2" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
       <c r="P583" s="2" t="s">
-        <v>33</v>
+        <v>1191</v>
       </c>
       <c r="Q583" s="2" t="s">
         <v>33</v>
@@ -43688,7 +43691,7 @@
         <v>33</v>
       </c>
       <c r="T583" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="U583" s="1" t="s">
         <v>34</v>
@@ -43738,13 +43741,13 @@
         <v>31</v>
       </c>
       <c r="N584" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="O584" s="2" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="P584" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="Q584" s="2" t="s">
         <v>33</v>
@@ -43756,7 +43759,7 @@
         <v>33</v>
       </c>
       <c r="T584" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="U584" s="1" t="s">
         <v>34</v>
@@ -43776,7 +43779,7 @@
         <v>22</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>1188</v>
@@ -43806,10 +43809,10 @@
         <v>31</v>
       </c>
       <c r="N585" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="O585" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="P585" s="2" t="s">
         <v>33</v>
@@ -43824,7 +43827,7 @@
         <v>33</v>
       </c>
       <c r="T585" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="U585" s="1" t="s">
         <v>34</v>
@@ -43844,7 +43847,7 @@
         <v>22</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>1188</v>
@@ -43877,7 +43880,7 @@
         <v>33</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="P586" s="2" t="s">
         <v>33</v>
@@ -43912,7 +43915,7 @@
         <v>22</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>1188</v>
@@ -43942,10 +43945,10 @@
         <v>31</v>
       </c>
       <c r="N587" s="2" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="O587" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P587" s="2" t="s">
         <v>33</v>
@@ -43980,7 +43983,7 @@
         <v>22</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>1188</v>
@@ -44019,10 +44022,10 @@
         <v>33</v>
       </c>
       <c r="Q588" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="R588" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="S588" s="2" t="s">
         <v>33</v>
@@ -44048,7 +44051,7 @@
         <v>22</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>1188</v>
@@ -44081,7 +44084,7 @@
         <v>56</v>
       </c>
       <c r="O589" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P589" s="2" t="s">
         <v>33</v>
@@ -44116,7 +44119,7 @@
         <v>22</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1188</v>
@@ -44252,7 +44255,7 @@
         <v>22</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>1188</v>
@@ -44282,10 +44285,10 @@
         <v>31</v>
       </c>
       <c r="N592" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O592" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P592" s="2" t="s">
         <v>33</v>
@@ -44320,7 +44323,7 @@
         <v>22</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>1188</v>
@@ -44388,22 +44391,22 @@
         <v>22</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>849</v>
+        <v>1070</v>
       </c>
       <c r="H594" s="1" t="s">
-        <v>850</v>
+        <v>1071</v>
       </c>
       <c r="I594" s="1" t="s">
-        <v>850</v>
+        <v>1072</v>
       </c>
       <c r="J594" s="2" t="s">
         <v>29</v>
@@ -44418,10 +44421,10 @@
         <v>31</v>
       </c>
       <c r="N594" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O594" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P594" s="2" t="s">
         <v>33</v>
@@ -44456,22 +44459,22 @@
         <v>22</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>993</v>
+        <v>849</v>
       </c>
       <c r="H595" s="1" t="s">
-        <v>994</v>
+        <v>850</v>
       </c>
       <c r="I595" s="1" t="s">
-        <v>995</v>
+        <v>850</v>
       </c>
       <c r="J595" s="2" t="s">
         <v>29</v>
@@ -44486,7 +44489,7 @@
         <v>31</v>
       </c>
       <c r="N595" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O595" s="2" t="s">
         <v>33</v>
@@ -44504,7 +44507,7 @@
         <v>33</v>
       </c>
       <c r="T595" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="U595" s="1" t="s">
         <v>34</v>
@@ -44524,22 +44527,22 @@
         <v>22</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>39</v>
+        <v>852</v>
       </c>
       <c r="H596" s="1" t="s">
-        <v>40</v>
+        <v>853</v>
       </c>
       <c r="I596" s="1" t="s">
-        <v>40</v>
+        <v>854</v>
       </c>
       <c r="J596" s="2" t="s">
         <v>29</v>
@@ -44554,13 +44557,13 @@
         <v>31</v>
       </c>
       <c r="N596" s="2" t="s">
-        <v>1206</v>
+        <v>33</v>
       </c>
       <c r="O596" s="2" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="P596" s="2" t="s">
-        <v>1004</v>
+        <v>33</v>
       </c>
       <c r="Q596" s="2" t="s">
         <v>33</v>
@@ -44572,7 +44575,7 @@
         <v>33</v>
       </c>
       <c r="T596" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="U596" s="1" t="s">
         <v>34</v>
@@ -44598,16 +44601,16 @@
         <v>1188</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>409</v>
+        <v>38</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>451</v>
+        <v>39</v>
       </c>
       <c r="H597" s="1" t="s">
-        <v>452</v>
+        <v>40</v>
       </c>
       <c r="I597" s="1" t="s">
-        <v>452</v>
+        <v>40</v>
       </c>
       <c r="J597" s="2" t="s">
         <v>29</v>
@@ -44622,13 +44625,13 @@
         <v>31</v>
       </c>
       <c r="N597" s="2" t="s">
-        <v>80</v>
+        <v>1208</v>
       </c>
       <c r="O597" s="2" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="P597" s="2" t="s">
-        <v>33</v>
+        <v>1209</v>
       </c>
       <c r="Q597" s="2" t="s">
         <v>33</v>
@@ -44640,7 +44643,7 @@
         <v>33</v>
       </c>
       <c r="T597" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="U597" s="1" t="s">
         <v>34</v>
@@ -44660,22 +44663,22 @@
         <v>22</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="H598" s="1" t="s">
-        <v>767</v>
+        <v>452</v>
       </c>
       <c r="I598" s="1" t="s">
-        <v>767</v>
+        <v>452</v>
       </c>
       <c r="J598" s="2" t="s">
         <v>29</v>
@@ -44690,13 +44693,13 @@
         <v>31</v>
       </c>
       <c r="N598" s="2" t="s">
-        <v>1209</v>
+        <v>81</v>
       </c>
       <c r="O598" s="2" t="s">
-        <v>1210</v>
+        <v>710</v>
       </c>
       <c r="P598" s="2" t="s">
-        <v>1211</v>
+        <v>33</v>
       </c>
       <c r="Q598" s="2" t="s">
         <v>33</v>
@@ -44728,22 +44731,22 @@
         <v>22</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>51</v>
+        <v>426</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>52</v>
+        <v>766</v>
       </c>
       <c r="H599" s="1" t="s">
-        <v>53</v>
+        <v>767</v>
       </c>
       <c r="I599" s="1" t="s">
-        <v>54</v>
+        <v>767</v>
       </c>
       <c r="J599" s="2" t="s">
         <v>29</v>
@@ -44758,13 +44761,13 @@
         <v>31</v>
       </c>
       <c r="N599" s="2" t="s">
-        <v>148</v>
+        <v>1212</v>
       </c>
       <c r="O599" s="2" t="s">
-        <v>68</v>
+        <v>551</v>
       </c>
       <c r="P599" s="2" t="s">
-        <v>33</v>
+        <v>1213</v>
       </c>
       <c r="Q599" s="2" t="s">
         <v>33</v>
@@ -44776,7 +44779,7 @@
         <v>33</v>
       </c>
       <c r="T599" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U599" s="1" t="s">
         <v>34</v>
@@ -44796,22 +44799,22 @@
         <v>22</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>447</v>
+        <v>51</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>900</v>
+        <v>52</v>
       </c>
       <c r="H600" s="1" t="s">
-        <v>901</v>
+        <v>53</v>
       </c>
       <c r="I600" s="1" t="s">
-        <v>901</v>
+        <v>54</v>
       </c>
       <c r="J600" s="2" t="s">
         <v>29</v>
@@ -44826,10 +44829,10 @@
         <v>31</v>
       </c>
       <c r="N600" s="2" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="O600" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="P600" s="2" t="s">
         <v>33</v>
@@ -44870,16 +44873,16 @@
         <v>1188</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>192</v>
+        <v>447</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>193</v>
+        <v>900</v>
       </c>
       <c r="H601" s="1" t="s">
-        <v>194</v>
+        <v>901</v>
       </c>
       <c r="I601" s="1" t="s">
-        <v>194</v>
+        <v>901</v>
       </c>
       <c r="J601" s="2" t="s">
         <v>29</v>
@@ -44894,10 +44897,10 @@
         <v>31</v>
       </c>
       <c r="N601" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O601" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="P601" s="2" t="s">
         <v>33</v>
@@ -44912,7 +44915,7 @@
         <v>33</v>
       </c>
       <c r="T601" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="U601" s="1" t="s">
         <v>34</v>
@@ -44932,22 +44935,22 @@
         <v>22</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>1188</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>504</v>
+        <v>192</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>1120</v>
+        <v>193</v>
       </c>
       <c r="H602" s="1" t="s">
-        <v>1121</v>
+        <v>194</v>
       </c>
       <c r="I602" s="1" t="s">
-        <v>1122</v>
+        <v>194</v>
       </c>
       <c r="J602" s="2" t="s">
         <v>29</v>
@@ -44962,10 +44965,10 @@
         <v>31</v>
       </c>
       <c r="N602" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="O602" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P602" s="2" t="s">
         <v>33</v>
